--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_20_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_20_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.01460158781558758</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9340458199560131</v>
+        <v>0.9341122925006484</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8815845543370471</v>
+        <v>0.8809975011247192</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9899446315334752</v>
+        <v>0.9899834726050847</v>
       </c>
       <c r="I2" t="n">
-        <v>0.189832280889518</v>
+        <v>0.1898158700722603</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1829116770980689</v>
+        <v>0.1828930132828708</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1967760771568211</v>
+        <v>0.1967469430743772</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01459229424404665</v>
+        <v>0.01459093790830031</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01406226505119963</v>
+        <v>0.01405826376215626</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01513297468586626</v>
+        <v>0.01513187431754209</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0008208621901252787</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003590445684132399</v>
+        <v>0.00359063118329527</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003062815674904944</v>
+        <v>0.00306427765610209</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004183254673988649</v>
+        <v>0.004180253550931503</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003323966809856423</v>
+        <v>0.003324073826998439</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002836523013147815</v>
+        <v>0.002837898995761975</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003868278182340171</v>
+        <v>0.00386524969720016</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00374962971415861</v>
+        <v>0.003749808051843841</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003212013079447196</v>
+        <v>0.003213556003546099</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004352058312888868</v>
+        <v>0.004349037491617257</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.01542245000571286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9376362656401456</v>
+        <v>0.9377029236839438</v>
       </c>
       <c r="G4" t="n">
-        <v>0.884647370011952</v>
+        <v>0.8840617787808214</v>
       </c>
       <c r="H4" t="n">
-        <v>0.994127886207464</v>
+        <v>0.9941637261560161</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1931562476993745</v>
+        <v>0.1931399438992588</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1857482001112167</v>
+        <v>0.1857309122786328</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2006443553391613</v>
+        <v>0.2006121927715773</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01834192395820526</v>
+        <v>0.01834074596014415</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01727427813064682</v>
+        <v>0.01727181976570236</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01948503299875512</v>
+        <v>0.01948091180915934</v>
       </c>
     </row>
   </sheetData>
